--- a/example/dat/excel/test.xlsx
+++ b/example/dat/excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="18615" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
   <si>
     <t>id</t>
   </si>
@@ -24,16 +24,19 @@
   <si>
     <t>target</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,16 +54,130 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -73,120 +190,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -197,115 +200,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,74 +384,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -391,26 +394,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -432,6 +420,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -441,26 +438,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,7 +466,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,150 +508,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -961,26 +976,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="10:10">
+      <c r="J16" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/example/dat/excel/test.xlsx
+++ b/example/dat/excel/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
   <si>
     <t>id</t>
   </si>
@@ -25,7 +25,19 @@
     <t>target</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>目标选择</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1{}</t>
+  </si>
+  <si>
+    <t>bb</t>
   </si>
 </sst>
 </file>
@@ -33,10 +45,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -62,26 +74,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -90,8 +111,24 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,40 +158,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,21 +200,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,19 +212,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -224,31 +362,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,127 +392,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,6 +415,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -418,11 +448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -434,6 +470,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,45 +512,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -508,10 +520,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,133 +532,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,10 +988,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -987,30 +999,55 @@
     <col min="3" max="3" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" s="1" customFormat="1" spans="2:3">
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:3">
+      <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="4" customFormat="1" spans="1:2">
+      <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="str">
+        <f>C3</f>
+        <v>1{}</v>
+      </c>
     </row>
-    <row r="16" spans="10:10">
-      <c r="J16" t="s">
-        <v>3</v>
+    <row r="5" customFormat="1" spans="2:2">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1"/>
+    <row r="7" customFormat="1"/>
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/example/dat/excel/test.xlsx
+++ b/example/dat/excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18615" windowHeight="6660"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -22,22 +22,73 @@
     <t>name</t>
   </si>
   <si>
-    <t>target</t>
+    <t>act[].id</t>
+  </si>
+  <si>
+    <t>.prob</t>
+  </si>
+  <si>
+    <t>pas[]</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>attr.15</t>
+  </si>
+  <si>
+    <t>attr.11</t>
+  </si>
+  <si>
+    <t>attr.21</t>
+  </si>
+  <si>
+    <t>attr.22</t>
+  </si>
+  <si>
+    <t>attr.31</t>
+  </si>
+  <si>
+    <t>attr.32</t>
   </si>
   <si>
     <t>名字</t>
   </si>
   <si>
-    <t>目标选择</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>1{}</t>
-  </si>
-  <si>
-    <t>bb</t>
+    <t>主动技能id</t>
+  </si>
+  <si>
+    <t>释放概率</t>
+  </si>
+  <si>
+    <t>被动技能id</t>
+  </si>
+  <si>
+    <t>sp技能</t>
+  </si>
+  <si>
+    <t>速度</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>物攻</t>
+  </si>
+  <si>
+    <t>物防</t>
+  </si>
+  <si>
+    <t>法攻</t>
+  </si>
+  <si>
+    <t>法防</t>
+  </si>
+  <si>
+    <t>应欢欢</t>
+  </si>
+  <si>
+    <t>黑铁妖豹</t>
   </si>
 </sst>
 </file>
@@ -45,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,21 +111,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,7 +148,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,17 +162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +201,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -165,6 +224,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -172,32 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,13 +263,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,169 +443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,57 +469,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -489,11 +490,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +554,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -520,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,18 +1039,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:3">
+    <row r="1" customFormat="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1009,45 +1060,147 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:3">
+    <row r="2" s="1" customFormat="1" spans="2:12">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:3">
+    <row r="3" customFormat="1" spans="1:12">
       <c r="A3">
-        <v>1</v>
+        <v>1600</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>160110</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>1001</v>
+      </c>
+      <c r="F3">
+        <v>160410</v>
+      </c>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3">
+        <v>380466</v>
+      </c>
+      <c r="J3">
+        <v>312</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3">
+        <v>468</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="str">
-        <f>C3</f>
-        <v>1{}</v>
+    <row r="4" customFormat="1" spans="3:4">
+      <c r="C4">
+        <v>160210</v>
+      </c>
+      <c r="D4">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="2:2">
-      <c r="B5" t="s">
-        <v>7</v>
+    <row r="5" customFormat="1" spans="3:4">
+      <c r="C5">
+        <v>160310</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="1"/>
-    <row r="7" customFormat="1"/>
-    <row r="17" spans="10:10">
-      <c r="J17" t="s">
-        <v>5</v>
+    <row r="6" customFormat="1" spans="1:12">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>301105</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>53</v>
+      </c>
+      <c r="H6">
+        <v>218309</v>
+      </c>
+      <c r="I6">
+        <v>50729</v>
+      </c>
+      <c r="J6">
+        <v>360</v>
+      </c>
+      <c r="L6">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/example/dat/excel/test.xlsx
+++ b/example/dat/excel/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="18375" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,22 +34,22 @@
     <t>sp</t>
   </si>
   <si>
-    <t>attr.15</t>
-  </si>
-  <si>
-    <t>attr.11</t>
-  </si>
-  <si>
-    <t>attr.21</t>
-  </si>
-  <si>
-    <t>attr.22</t>
-  </si>
-  <si>
-    <t>attr.31</t>
-  </si>
-  <si>
-    <t>attr.32</t>
+    <t>attr.a15</t>
+  </si>
+  <si>
+    <t>.a11</t>
+  </si>
+  <si>
+    <t>.a21</t>
+  </si>
+  <si>
+    <t>.a22</t>
+  </si>
+  <si>
+    <t>.a31</t>
+  </si>
+  <si>
+    <t>.a32</t>
   </si>
   <si>
     <t>名字</t>
@@ -97,9 +97,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,6 +119,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,22 +148,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,84 +248,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,19 +263,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,151 +365,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,15 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -490,17 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,17 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,6 +529,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -563,6 +552,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/example/dat/excel/test.xlsx
+++ b/example/dat/excel/test.xlsx
@@ -111,29 +111,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,22 +134,66 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -179,37 +209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,32 +223,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,16 +466,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -508,23 +508,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,11 +529,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,10 +571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
